--- a/data/example/Power_Inflows_KInRows.xlsx
+++ b/data/example/Power_Inflows_KInRows.xlsx
@@ -563,7 +563,7 @@
     <col width="14.7109375" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
